--- a/InputData/elec/DRC/Demand Response Capacity.xlsx
+++ b/InputData/elec/DRC/Demand Response Capacity.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\DRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A235F4F-D7BD-4789-A3D4-BDCEDA899E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="23955" windowHeight="12270"/>
+    <workbookView xWindow="47625" yWindow="330" windowWidth="19050" windowHeight="14730" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations" sheetId="4" r:id="rId2"/>
-    <sheet name="DRC-BDRC" sheetId="5" r:id="rId3"/>
-    <sheet name="DRC-PADRC" sheetId="2" r:id="rId4"/>
+    <sheet name="Texas Notes" sheetId="6" r:id="rId3"/>
+    <sheet name="DRC-BDRC" sheetId="5" r:id="rId4"/>
+    <sheet name="DRC-PADRC" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Year</t>
   </si>
@@ -88,13 +100,67 @@
   </si>
   <si>
     <t>We then scale the potential from 2030 to 2050 by the growth in peak demand (EPS model output).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I used the same growth curves as the EPS data. </t>
+  </si>
+  <si>
+    <t>But I changed the 2018 baseline number to match what's already in ERCOT.</t>
+  </si>
+  <si>
+    <t>see Brattle Group report for Australia, section 3 about ERCOT</t>
+  </si>
+  <si>
+    <t>https://www.aemc.gov.au/sites/default/files/2019-06/Updated%20International%20Review%20of%20Demand%20Response%20Mechanisms.pdf</t>
+  </si>
+  <si>
+    <t>MW of procurement in 2019</t>
+  </si>
+  <si>
+    <t>type of DR</t>
+  </si>
+  <si>
+    <t>Wholesale Enregy (customers that adjust demand in response to high prices)</t>
+  </si>
+  <si>
+    <t>Ancillary Services (customers providing short-term reserves)</t>
+  </si>
+  <si>
+    <t>Emergency Response Service (customers that will turn off in an emergency)</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>So, it's reasonable to say that ERCOT has at least 3,000 MW or demand response capacity.</t>
+  </si>
+  <si>
+    <t>Then, we will scale that 3,000 up to match the EPS trends</t>
+  </si>
+  <si>
+    <t>ORIGINAL EPS DATA:</t>
+  </si>
+  <si>
+    <t>BAU</t>
+  </si>
+  <si>
+    <t>POTENTIAL</t>
+  </si>
+  <si>
+    <t>TEXAS VERSION</t>
+  </si>
+  <si>
+    <t>Basically, we will take a constant ratio of Texas DR capacity vs US DR capacity and apply that ratio to the existing EPS data</t>
+  </si>
+  <si>
+    <t>ratio of Texas:US DR capacity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +180,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -167,6 +240,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -261,6 +338,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -296,6 +390,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,11 +582,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -613,7 +724,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -621,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -876,14 +987,1051 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047289AC-4322-48A1-88EA-6EE7C99BC88A}">
+  <dimension ref="A1:AH35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="70.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <f>401+57</f>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <f>1734</f>
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <f>SUM(C8:C10)</f>
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <f>3000/59000</f>
+        <v>5.0847457627118647E-2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A19" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A20" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>2018</v>
+      </c>
+      <c r="C21">
+        <v>2019</v>
+      </c>
+      <c r="D21">
+        <v>2020</v>
+      </c>
+      <c r="E21">
+        <v>2021</v>
+      </c>
+      <c r="F21">
+        <v>2022</v>
+      </c>
+      <c r="G21">
+        <v>2023</v>
+      </c>
+      <c r="H21">
+        <v>2024</v>
+      </c>
+      <c r="I21">
+        <v>2025</v>
+      </c>
+      <c r="J21">
+        <v>2026</v>
+      </c>
+      <c r="K21">
+        <v>2027</v>
+      </c>
+      <c r="L21">
+        <v>2028</v>
+      </c>
+      <c r="M21">
+        <v>2029</v>
+      </c>
+      <c r="N21">
+        <v>2030</v>
+      </c>
+      <c r="O21">
+        <v>2031</v>
+      </c>
+      <c r="P21">
+        <v>2032</v>
+      </c>
+      <c r="Q21">
+        <v>2033</v>
+      </c>
+      <c r="R21">
+        <v>2034</v>
+      </c>
+      <c r="S21">
+        <v>2035</v>
+      </c>
+      <c r="T21">
+        <v>2036</v>
+      </c>
+      <c r="U21">
+        <v>2037</v>
+      </c>
+      <c r="V21">
+        <v>2038</v>
+      </c>
+      <c r="W21">
+        <v>2039</v>
+      </c>
+      <c r="X21">
+        <v>2040</v>
+      </c>
+      <c r="Y21">
+        <v>2041</v>
+      </c>
+      <c r="Z21">
+        <v>2042</v>
+      </c>
+      <c r="AA21">
+        <v>2043</v>
+      </c>
+      <c r="AB21">
+        <v>2044</v>
+      </c>
+      <c r="AC21">
+        <v>2045</v>
+      </c>
+      <c r="AD21">
+        <v>2046</v>
+      </c>
+      <c r="AE21">
+        <v>2047</v>
+      </c>
+      <c r="AF21">
+        <v>2048</v>
+      </c>
+      <c r="AG21">
+        <v>2049</v>
+      </c>
+      <c r="AH21">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>59000</v>
+      </c>
+      <c r="C22">
+        <v>59000</v>
+      </c>
+      <c r="D22">
+        <v>56816.464532194783</v>
+      </c>
+      <c r="E22">
+        <v>58832.246584697867</v>
+      </c>
+      <c r="F22">
+        <v>59841.508145388158</v>
+      </c>
+      <c r="G22">
+        <v>60441.185489060117</v>
+      </c>
+      <c r="H22">
+        <v>60910.319427441813</v>
+      </c>
+      <c r="I22">
+        <v>61332.85519490626</v>
+      </c>
+      <c r="J22">
+        <v>61698.445256440929</v>
+      </c>
+      <c r="K22">
+        <v>62110.496435448993</v>
+      </c>
+      <c r="L22">
+        <v>62645.416026890351</v>
+      </c>
+      <c r="M22">
+        <v>63199.865734083796</v>
+      </c>
+      <c r="N22">
+        <v>63642.822464685501</v>
+      </c>
+      <c r="O22">
+        <v>64182.53892666247</v>
+      </c>
+      <c r="P22">
+        <v>64747.267642146486</v>
+      </c>
+      <c r="Q22">
+        <v>65344.752130716464</v>
+      </c>
+      <c r="R22">
+        <v>66060.171107740272</v>
+      </c>
+      <c r="S22">
+        <v>66822.325309125197</v>
+      </c>
+      <c r="T22">
+        <v>67635.668971797189</v>
+      </c>
+      <c r="U22">
+        <v>68486.017064315238</v>
+      </c>
+      <c r="V22">
+        <v>69383.305961360224</v>
+      </c>
+      <c r="W22">
+        <v>70259.077467716954</v>
+      </c>
+      <c r="X22">
+        <v>71106.067750860064</v>
+      </c>
+      <c r="Y22">
+        <v>71921.535741912099</v>
+      </c>
+      <c r="Z22">
+        <v>72739.744801841618</v>
+      </c>
+      <c r="AA22">
+        <v>73533.284241873771</v>
+      </c>
+      <c r="AB22">
+        <v>74349.437500145184</v>
+      </c>
+      <c r="AC22">
+        <v>75142.291672957959</v>
+      </c>
+      <c r="AD22">
+        <v>75921.440501383317</v>
+      </c>
+      <c r="AE22">
+        <v>76666.325968840087</v>
+      </c>
+      <c r="AF22">
+        <v>77383.800747522007</v>
+      </c>
+      <c r="AG22">
+        <v>78049.880484751062</v>
+      </c>
+      <c r="AH22">
+        <v>78745.4267124131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A24" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>2018</v>
+      </c>
+      <c r="C25">
+        <v>2019</v>
+      </c>
+      <c r="D25">
+        <v>2020</v>
+      </c>
+      <c r="E25">
+        <v>2021</v>
+      </c>
+      <c r="F25">
+        <v>2022</v>
+      </c>
+      <c r="G25">
+        <v>2023</v>
+      </c>
+      <c r="H25">
+        <v>2024</v>
+      </c>
+      <c r="I25">
+        <v>2025</v>
+      </c>
+      <c r="J25">
+        <v>2026</v>
+      </c>
+      <c r="K25">
+        <v>2027</v>
+      </c>
+      <c r="L25">
+        <v>2028</v>
+      </c>
+      <c r="M25">
+        <v>2029</v>
+      </c>
+      <c r="N25">
+        <v>2030</v>
+      </c>
+      <c r="O25">
+        <v>2031</v>
+      </c>
+      <c r="P25">
+        <v>2032</v>
+      </c>
+      <c r="Q25">
+        <v>2033</v>
+      </c>
+      <c r="R25">
+        <v>2034</v>
+      </c>
+      <c r="S25">
+        <v>2035</v>
+      </c>
+      <c r="T25">
+        <v>2036</v>
+      </c>
+      <c r="U25">
+        <v>2037</v>
+      </c>
+      <c r="V25">
+        <v>2038</v>
+      </c>
+      <c r="W25">
+        <v>2039</v>
+      </c>
+      <c r="X25">
+        <v>2040</v>
+      </c>
+      <c r="Y25">
+        <v>2041</v>
+      </c>
+      <c r="Z25">
+        <v>2042</v>
+      </c>
+      <c r="AA25">
+        <v>2043</v>
+      </c>
+      <c r="AB25">
+        <v>2044</v>
+      </c>
+      <c r="AC25">
+        <v>2045</v>
+      </c>
+      <c r="AD25">
+        <v>2046</v>
+      </c>
+      <c r="AE25">
+        <v>2047</v>
+      </c>
+      <c r="AF25">
+        <v>2048</v>
+      </c>
+      <c r="AG25">
+        <v>2049</v>
+      </c>
+      <c r="AH25">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>59000</v>
+      </c>
+      <c r="C26">
+        <v>59000</v>
+      </c>
+      <c r="D26">
+        <v>71636.363636363298</v>
+      </c>
+      <c r="E26">
+        <v>84272.727272730321</v>
+      </c>
+      <c r="F26">
+        <v>96909.090909093618</v>
+      </c>
+      <c r="G26">
+        <v>109545.45454545692</v>
+      </c>
+      <c r="H26">
+        <v>122181.81818182021</v>
+      </c>
+      <c r="I26">
+        <v>134818.18181818351</v>
+      </c>
+      <c r="J26">
+        <v>147454.54545454681</v>
+      </c>
+      <c r="K26">
+        <v>160090.90909091011</v>
+      </c>
+      <c r="L26">
+        <v>172727.2727272734</v>
+      </c>
+      <c r="M26">
+        <v>185363.6363636367</v>
+      </c>
+      <c r="N26">
+        <v>198000</v>
+      </c>
+      <c r="O26">
+        <v>199679.11879663626</v>
+      </c>
+      <c r="P26">
+        <v>201436.05353547315</v>
+      </c>
+      <c r="Q26">
+        <v>203294.89517943861</v>
+      </c>
+      <c r="R26">
+        <v>205520.64432073908</v>
+      </c>
+      <c r="S26">
+        <v>207891.79201705556</v>
+      </c>
+      <c r="T26">
+        <v>210422.19590193059</v>
+      </c>
+      <c r="U26">
+        <v>213067.72474239013</v>
+      </c>
+      <c r="V26">
+        <v>215859.29172095226</v>
+      </c>
+      <c r="W26">
+        <v>218583.91566978561</v>
+      </c>
+      <c r="X26">
+        <v>221218.99798649768</v>
+      </c>
+      <c r="Y26">
+        <v>223756.01089660072</v>
+      </c>
+      <c r="Z26">
+        <v>226301.55158119151</v>
+      </c>
+      <c r="AA26">
+        <v>228770.34229539265</v>
+      </c>
+      <c r="AB26">
+        <v>231309.4871491176</v>
+      </c>
+      <c r="AC26">
+        <v>233776.14591969681</v>
+      </c>
+      <c r="AD26">
+        <v>236200.16581783726</v>
+      </c>
+      <c r="AE26">
+        <v>238517.58853488098</v>
+      </c>
+      <c r="AF26">
+        <v>240749.73350704726</v>
+      </c>
+      <c r="AG26">
+        <v>242821.98270756842</v>
+      </c>
+      <c r="AH26">
+        <v>244985.90548383276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A28" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A29" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>2018</v>
+      </c>
+      <c r="C30">
+        <v>2019</v>
+      </c>
+      <c r="D30">
+        <v>2020</v>
+      </c>
+      <c r="E30">
+        <v>2021</v>
+      </c>
+      <c r="F30">
+        <v>2022</v>
+      </c>
+      <c r="G30">
+        <v>2023</v>
+      </c>
+      <c r="H30">
+        <v>2024</v>
+      </c>
+      <c r="I30">
+        <v>2025</v>
+      </c>
+      <c r="J30">
+        <v>2026</v>
+      </c>
+      <c r="K30">
+        <v>2027</v>
+      </c>
+      <c r="L30">
+        <v>2028</v>
+      </c>
+      <c r="M30">
+        <v>2029</v>
+      </c>
+      <c r="N30">
+        <v>2030</v>
+      </c>
+      <c r="O30">
+        <v>2031</v>
+      </c>
+      <c r="P30">
+        <v>2032</v>
+      </c>
+      <c r="Q30">
+        <v>2033</v>
+      </c>
+      <c r="R30">
+        <v>2034</v>
+      </c>
+      <c r="S30">
+        <v>2035</v>
+      </c>
+      <c r="T30">
+        <v>2036</v>
+      </c>
+      <c r="U30">
+        <v>2037</v>
+      </c>
+      <c r="V30">
+        <v>2038</v>
+      </c>
+      <c r="W30">
+        <v>2039</v>
+      </c>
+      <c r="X30">
+        <v>2040</v>
+      </c>
+      <c r="Y30">
+        <v>2041</v>
+      </c>
+      <c r="Z30">
+        <v>2042</v>
+      </c>
+      <c r="AA30">
+        <v>2043</v>
+      </c>
+      <c r="AB30">
+        <v>2044</v>
+      </c>
+      <c r="AC30">
+        <v>2045</v>
+      </c>
+      <c r="AD30">
+        <v>2046</v>
+      </c>
+      <c r="AE30">
+        <v>2047</v>
+      </c>
+      <c r="AF30">
+        <v>2048</v>
+      </c>
+      <c r="AG30">
+        <v>2049</v>
+      </c>
+      <c r="AH30">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <f>B22*$A$17</f>
+        <v>3000</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:AH31" si="0">C22*$A$17</f>
+        <v>3000</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>2888.9727728234639</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>2991.4701653236207</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>3042.7885497654997</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>3073.2806180878028</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>3097.1348861411093</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>3118.6197556732</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>3137.2090808359799</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>3158.1608357007963</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>3185.3601369605267</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>3213.5524949534138</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>3236.0757185433308</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>3263.5189284743633</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="0"/>
+        <v>3292.2339479057537</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>3322.6145151211763</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="0"/>
+        <v>3358.9917512410311</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>3397.7453547012815</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="0"/>
+        <v>3439.101812125281</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>3482.3398507278935</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="0"/>
+        <v>3527.9647098996725</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="0"/>
+        <v>3572.4954644601844</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="0"/>
+        <v>3615.5627669928849</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="0"/>
+        <v>3657.0272411141746</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="0"/>
+        <v>3698.6310916190655</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="0"/>
+        <v>3738.9805546715479</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="0"/>
+        <v>3780.4798728887386</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="0"/>
+        <v>3820.7944918453204</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="0"/>
+        <v>3860.4122288838976</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="0"/>
+        <v>3898.2877611274621</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="0"/>
+        <v>3934.7695295350177</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="0"/>
+        <v>3968.6379907500541</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="0"/>
+        <v>4004.004748088802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A33" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>2018</v>
+      </c>
+      <c r="C34">
+        <v>2019</v>
+      </c>
+      <c r="D34">
+        <v>2020</v>
+      </c>
+      <c r="E34">
+        <v>2021</v>
+      </c>
+      <c r="F34">
+        <v>2022</v>
+      </c>
+      <c r="G34">
+        <v>2023</v>
+      </c>
+      <c r="H34">
+        <v>2024</v>
+      </c>
+      <c r="I34">
+        <v>2025</v>
+      </c>
+      <c r="J34">
+        <v>2026</v>
+      </c>
+      <c r="K34">
+        <v>2027</v>
+      </c>
+      <c r="L34">
+        <v>2028</v>
+      </c>
+      <c r="M34">
+        <v>2029</v>
+      </c>
+      <c r="N34">
+        <v>2030</v>
+      </c>
+      <c r="O34">
+        <v>2031</v>
+      </c>
+      <c r="P34">
+        <v>2032</v>
+      </c>
+      <c r="Q34">
+        <v>2033</v>
+      </c>
+      <c r="R34">
+        <v>2034</v>
+      </c>
+      <c r="S34">
+        <v>2035</v>
+      </c>
+      <c r="T34">
+        <v>2036</v>
+      </c>
+      <c r="U34">
+        <v>2037</v>
+      </c>
+      <c r="V34">
+        <v>2038</v>
+      </c>
+      <c r="W34">
+        <v>2039</v>
+      </c>
+      <c r="X34">
+        <v>2040</v>
+      </c>
+      <c r="Y34">
+        <v>2041</v>
+      </c>
+      <c r="Z34">
+        <v>2042</v>
+      </c>
+      <c r="AA34">
+        <v>2043</v>
+      </c>
+      <c r="AB34">
+        <v>2044</v>
+      </c>
+      <c r="AC34">
+        <v>2045</v>
+      </c>
+      <c r="AD34">
+        <v>2046</v>
+      </c>
+      <c r="AE34">
+        <v>2047</v>
+      </c>
+      <c r="AF34">
+        <v>2048</v>
+      </c>
+      <c r="AG34">
+        <v>2049</v>
+      </c>
+      <c r="AH34">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <f>B26*$A$17</f>
+        <v>3000</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:AH35" si="1">C26*$A$17</f>
+        <v>3000</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>3642.526964560846</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>4285.0539291218811</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>4927.580893682727</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>5570.1078582435721</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>6212.634822804418</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>6855.161787365264</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>7497.688751926109</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>8140.215716486955</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>8782.7426810478009</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>9425.2696456086469</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>10067.796610169493</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>10153.175532032354</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>10242.511196718975</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>10337.028568446032</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="1"/>
+        <v>10450.202253596903</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="1"/>
+        <v>10570.769085612996</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="1"/>
+        <v>10699.433689928675</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="1"/>
+        <v>10833.952105545261</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="1"/>
+        <v>10975.896189200963</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="1"/>
+        <v>11114.4363899891</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="1"/>
+        <v>11248.423626432086</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="1"/>
+        <v>11377.424282878004</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="1"/>
+        <v>11506.858554975841</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="1"/>
+        <v>11632.390286206406</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="1"/>
+        <v>11761.499346565302</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="1"/>
+        <v>11886.922673882889</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="1"/>
+        <v>12010.177922940878</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="1"/>
+        <v>12128.012976349881</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="1"/>
+        <v>12241.511873239691</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="1"/>
+        <v>12346.880476656022</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="1"/>
+        <v>12456.91044833048</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" display="https://www.aemc.gov.au/sites/default/files/2019-06/Updated International Review of Demand Response Mechanisms.pdf" xr:uid="{1B29CCB3-054C-4334-AB86-A2C833850D95}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1000,136 +2148,136 @@
         <v>2</v>
       </c>
       <c r="B2" s="8">
-        <f>C2</f>
-        <v>59000</v>
+        <f>'Texas Notes'!B31</f>
+        <v>3000</v>
       </c>
       <c r="C2" s="8">
-        <f>Calculations!A3</f>
-        <v>59000</v>
+        <f>'Texas Notes'!C31</f>
+        <v>3000</v>
       </c>
       <c r="D2" s="8">
-        <f>$C$2*(Calculations!D7/Calculations!$C$7)</f>
-        <v>56816.464532194783</v>
+        <f>'Texas Notes'!D31</f>
+        <v>2888.9727728234639</v>
       </c>
       <c r="E2" s="8">
-        <f>$C$2*(Calculations!E7/Calculations!$C$7)</f>
-        <v>58832.246584697867</v>
+        <f>'Texas Notes'!E31</f>
+        <v>2991.4701653236207</v>
       </c>
       <c r="F2" s="8">
-        <f>$C$2*(Calculations!F7/Calculations!$C$7)</f>
-        <v>59841.508145388158</v>
+        <f>'Texas Notes'!F31</f>
+        <v>3042.7885497654997</v>
       </c>
       <c r="G2" s="8">
-        <f>$C$2*(Calculations!G7/Calculations!$C$7)</f>
-        <v>60441.185489060117</v>
+        <f>'Texas Notes'!G31</f>
+        <v>3073.2806180878028</v>
       </c>
       <c r="H2" s="8">
-        <f>$C$2*(Calculations!H7/Calculations!$C$7)</f>
-        <v>60910.319427441813</v>
+        <f>'Texas Notes'!H31</f>
+        <v>3097.1348861411093</v>
       </c>
       <c r="I2" s="8">
-        <f>$C$2*(Calculations!I7/Calculations!$C$7)</f>
-        <v>61332.85519490626</v>
+        <f>'Texas Notes'!I31</f>
+        <v>3118.6197556732</v>
       </c>
       <c r="J2" s="8">
-        <f>$C$2*(Calculations!J7/Calculations!$C$7)</f>
-        <v>61698.445256440929</v>
+        <f>'Texas Notes'!J31</f>
+        <v>3137.2090808359799</v>
       </c>
       <c r="K2" s="8">
-        <f>$C$2*(Calculations!K7/Calculations!$C$7)</f>
-        <v>62110.496435448993</v>
+        <f>'Texas Notes'!K31</f>
+        <v>3158.1608357007963</v>
       </c>
       <c r="L2" s="8">
-        <f>$C$2*(Calculations!L7/Calculations!$C$7)</f>
-        <v>62645.416026890351</v>
+        <f>'Texas Notes'!L31</f>
+        <v>3185.3601369605267</v>
       </c>
       <c r="M2" s="8">
-        <f>$C$2*(Calculations!M7/Calculations!$C$7)</f>
-        <v>63199.865734083796</v>
+        <f>'Texas Notes'!M31</f>
+        <v>3213.5524949534138</v>
       </c>
       <c r="N2" s="8">
-        <f>$C$2*(Calculations!N7/Calculations!$C$7)</f>
-        <v>63642.822464685501</v>
+        <f>'Texas Notes'!N31</f>
+        <v>3236.0757185433308</v>
       </c>
       <c r="O2" s="8">
-        <f>$C$2*(Calculations!O7/Calculations!$C$7)</f>
-        <v>64182.53892666247</v>
+        <f>'Texas Notes'!O31</f>
+        <v>3263.5189284743633</v>
       </c>
       <c r="P2" s="8">
-        <f>$C$2*(Calculations!P7/Calculations!$C$7)</f>
-        <v>64747.267642146486</v>
+        <f>'Texas Notes'!P31</f>
+        <v>3292.2339479057537</v>
       </c>
       <c r="Q2" s="8">
-        <f>$C$2*(Calculations!Q7/Calculations!$C$7)</f>
-        <v>65344.752130716464</v>
+        <f>'Texas Notes'!Q31</f>
+        <v>3322.6145151211763</v>
       </c>
       <c r="R2" s="8">
-        <f>$C$2*(Calculations!R7/Calculations!$C$7)</f>
-        <v>66060.171107740272</v>
+        <f>'Texas Notes'!R31</f>
+        <v>3358.9917512410311</v>
       </c>
       <c r="S2" s="8">
-        <f>$C$2*(Calculations!S7/Calculations!$C$7)</f>
-        <v>66822.325309125197</v>
+        <f>'Texas Notes'!S31</f>
+        <v>3397.7453547012815</v>
       </c>
       <c r="T2" s="8">
-        <f>$C$2*(Calculations!T7/Calculations!$C$7)</f>
-        <v>67635.668971797189</v>
+        <f>'Texas Notes'!T31</f>
+        <v>3439.101812125281</v>
       </c>
       <c r="U2" s="8">
-        <f>$C$2*(Calculations!U7/Calculations!$C$7)</f>
-        <v>68486.017064315238</v>
+        <f>'Texas Notes'!U31</f>
+        <v>3482.3398507278935</v>
       </c>
       <c r="V2" s="8">
-        <f>$C$2*(Calculations!V7/Calculations!$C$7)</f>
-        <v>69383.305961360224</v>
+        <f>'Texas Notes'!V31</f>
+        <v>3527.9647098996725</v>
       </c>
       <c r="W2" s="8">
-        <f>$C$2*(Calculations!W7/Calculations!$C$7)</f>
-        <v>70259.077467716954</v>
+        <f>'Texas Notes'!W31</f>
+        <v>3572.4954644601844</v>
       </c>
       <c r="X2" s="8">
-        <f>$C$2*(Calculations!X7/Calculations!$C$7)</f>
-        <v>71106.067750860064</v>
+        <f>'Texas Notes'!X31</f>
+        <v>3615.5627669928849</v>
       </c>
       <c r="Y2" s="8">
-        <f>$C$2*(Calculations!Y7/Calculations!$C$7)</f>
-        <v>71921.535741912099</v>
+        <f>'Texas Notes'!Y31</f>
+        <v>3657.0272411141746</v>
       </c>
       <c r="Z2" s="8">
-        <f>$C$2*(Calculations!Z7/Calculations!$C$7)</f>
-        <v>72739.744801841618</v>
+        <f>'Texas Notes'!Z31</f>
+        <v>3698.6310916190655</v>
       </c>
       <c r="AA2" s="8">
-        <f>$C$2*(Calculations!AA7/Calculations!$C$7)</f>
-        <v>73533.284241873771</v>
+        <f>'Texas Notes'!AA31</f>
+        <v>3738.9805546715479</v>
       </c>
       <c r="AB2" s="8">
-        <f>$C$2*(Calculations!AB7/Calculations!$C$7)</f>
-        <v>74349.437500145184</v>
+        <f>'Texas Notes'!AB31</f>
+        <v>3780.4798728887386</v>
       </c>
       <c r="AC2" s="8">
-        <f>$C$2*(Calculations!AC7/Calculations!$C$7)</f>
-        <v>75142.291672957959</v>
+        <f>'Texas Notes'!AC31</f>
+        <v>3820.7944918453204</v>
       </c>
       <c r="AD2" s="8">
-        <f>$C$2*(Calculations!AD7/Calculations!$C$7)</f>
-        <v>75921.440501383317</v>
+        <f>'Texas Notes'!AD31</f>
+        <v>3860.4122288838976</v>
       </c>
       <c r="AE2" s="8">
-        <f>$C$2*(Calculations!AE7/Calculations!$C$7)</f>
-        <v>76666.325968840087</v>
+        <f>'Texas Notes'!AE31</f>
+        <v>3898.2877611274621</v>
       </c>
       <c r="AF2" s="8">
-        <f>$C$2*(Calculations!AF7/Calculations!$C$7)</f>
-        <v>77383.800747522007</v>
+        <f>'Texas Notes'!AF31</f>
+        <v>3934.7695295350177</v>
       </c>
       <c r="AG2" s="8">
-        <f>$C$2*(Calculations!AG7/Calculations!$C$7)</f>
-        <v>78049.880484751062</v>
+        <f>'Texas Notes'!AG31</f>
+        <v>3968.6379907500541</v>
       </c>
       <c r="AH2" s="8">
-        <f>$C$2*(Calculations!AH7/Calculations!$C$7)</f>
-        <v>78745.4267124131</v>
+        <f>'Texas Notes'!AH31</f>
+        <v>4004.004748088802</v>
       </c>
     </row>
   </sheetData>
@@ -1137,15 +2285,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1262,136 +2410,136 @@
         <v>1</v>
       </c>
       <c r="B2" s="8">
-        <f>C2</f>
-        <v>59000</v>
+        <f>'Texas Notes'!B35</f>
+        <v>3000</v>
       </c>
       <c r="C2" s="8">
-        <f>Calculations!A3</f>
-        <v>59000</v>
+        <f>'Texas Notes'!C35</f>
+        <v>3000</v>
       </c>
       <c r="D2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!D1)</f>
-        <v>71636.363636363298</v>
+        <f>'Texas Notes'!D35</f>
+        <v>3642.526964560846</v>
       </c>
       <c r="E2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!E1)</f>
-        <v>84272.727272730321</v>
+        <f>'Texas Notes'!E35</f>
+        <v>4285.0539291218811</v>
       </c>
       <c r="F2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!F1)</f>
-        <v>96909.090909093618</v>
+        <f>'Texas Notes'!F35</f>
+        <v>4927.580893682727</v>
       </c>
       <c r="G2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!G1)</f>
-        <v>109545.45454545692</v>
+        <f>'Texas Notes'!G35</f>
+        <v>5570.1078582435721</v>
       </c>
       <c r="H2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!H1)</f>
-        <v>122181.81818182021</v>
+        <f>'Texas Notes'!H35</f>
+        <v>6212.634822804418</v>
       </c>
       <c r="I2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!I1)</f>
-        <v>134818.18181818351</v>
+        <f>'Texas Notes'!I35</f>
+        <v>6855.161787365264</v>
       </c>
       <c r="J2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!J1)</f>
-        <v>147454.54545454681</v>
+        <f>'Texas Notes'!J35</f>
+        <v>7497.688751926109</v>
       </c>
       <c r="K2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!K1)</f>
-        <v>160090.90909091011</v>
+        <f>'Texas Notes'!K35</f>
+        <v>8140.215716486955</v>
       </c>
       <c r="L2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!L1)</f>
-        <v>172727.2727272734</v>
+        <f>'Texas Notes'!L35</f>
+        <v>8782.7426810478009</v>
       </c>
       <c r="M2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!M1)</f>
-        <v>185363.6363636367</v>
+        <f>'Texas Notes'!M35</f>
+        <v>9425.2696456086469</v>
       </c>
       <c r="N2" s="8">
-        <f>TREND(Calculations!$A$3:$B$3,Calculations!$A$2:$B$2,'DRC-PADRC'!N1)</f>
-        <v>198000</v>
+        <f>'Texas Notes'!N35</f>
+        <v>10067.796610169493</v>
       </c>
       <c r="O2" s="8">
-        <f>$N$2*(Calculations!O7/Calculations!$N$7)</f>
-        <v>199679.11879663626</v>
+        <f>'Texas Notes'!O35</f>
+        <v>10153.175532032354</v>
       </c>
       <c r="P2" s="8">
-        <f>$N$2*(Calculations!P7/Calculations!$N$7)</f>
-        <v>201436.05353547315</v>
+        <f>'Texas Notes'!P35</f>
+        <v>10242.511196718975</v>
       </c>
       <c r="Q2" s="8">
-        <f>$N$2*(Calculations!Q7/Calculations!$N$7)</f>
-        <v>203294.89517943861</v>
+        <f>'Texas Notes'!Q35</f>
+        <v>10337.028568446032</v>
       </c>
       <c r="R2" s="8">
-        <f>$N$2*(Calculations!R7/Calculations!$N$7)</f>
-        <v>205520.64432073908</v>
+        <f>'Texas Notes'!R35</f>
+        <v>10450.202253596903</v>
       </c>
       <c r="S2" s="8">
-        <f>$N$2*(Calculations!S7/Calculations!$N$7)</f>
-        <v>207891.79201705556</v>
+        <f>'Texas Notes'!S35</f>
+        <v>10570.769085612996</v>
       </c>
       <c r="T2" s="8">
-        <f>$N$2*(Calculations!T7/Calculations!$N$7)</f>
-        <v>210422.19590193059</v>
+        <f>'Texas Notes'!T35</f>
+        <v>10699.433689928675</v>
       </c>
       <c r="U2" s="8">
-        <f>$N$2*(Calculations!U7/Calculations!$N$7)</f>
-        <v>213067.72474239013</v>
+        <f>'Texas Notes'!U35</f>
+        <v>10833.952105545261</v>
       </c>
       <c r="V2" s="8">
-        <f>$N$2*(Calculations!V7/Calculations!$N$7)</f>
-        <v>215859.29172095226</v>
+        <f>'Texas Notes'!V35</f>
+        <v>10975.896189200963</v>
       </c>
       <c r="W2" s="8">
-        <f>$N$2*(Calculations!W7/Calculations!$N$7)</f>
-        <v>218583.91566978561</v>
+        <f>'Texas Notes'!W35</f>
+        <v>11114.4363899891</v>
       </c>
       <c r="X2" s="8">
-        <f>$N$2*(Calculations!X7/Calculations!$N$7)</f>
-        <v>221218.99798649768</v>
+        <f>'Texas Notes'!X35</f>
+        <v>11248.423626432086</v>
       </c>
       <c r="Y2" s="8">
-        <f>$N$2*(Calculations!Y7/Calculations!$N$7)</f>
-        <v>223756.01089660072</v>
+        <f>'Texas Notes'!Y35</f>
+        <v>11377.424282878004</v>
       </c>
       <c r="Z2" s="8">
-        <f>$N$2*(Calculations!Z7/Calculations!$N$7)</f>
-        <v>226301.55158119151</v>
+        <f>'Texas Notes'!Z35</f>
+        <v>11506.858554975841</v>
       </c>
       <c r="AA2" s="8">
-        <f>$N$2*(Calculations!AA7/Calculations!$N$7)</f>
-        <v>228770.34229539265</v>
+        <f>'Texas Notes'!AA35</f>
+        <v>11632.390286206406</v>
       </c>
       <c r="AB2" s="8">
-        <f>$N$2*(Calculations!AB7/Calculations!$N$7)</f>
-        <v>231309.4871491176</v>
+        <f>'Texas Notes'!AB35</f>
+        <v>11761.499346565302</v>
       </c>
       <c r="AC2" s="8">
-        <f>$N$2*(Calculations!AC7/Calculations!$N$7)</f>
-        <v>233776.14591969681</v>
+        <f>'Texas Notes'!AC35</f>
+        <v>11886.922673882889</v>
       </c>
       <c r="AD2" s="8">
-        <f>$N$2*(Calculations!AD7/Calculations!$N$7)</f>
-        <v>236200.16581783726</v>
+        <f>'Texas Notes'!AD35</f>
+        <v>12010.177922940878</v>
       </c>
       <c r="AE2" s="8">
-        <f>$N$2*(Calculations!AE7/Calculations!$N$7)</f>
-        <v>238517.58853488098</v>
+        <f>'Texas Notes'!AE35</f>
+        <v>12128.012976349881</v>
       </c>
       <c r="AF2" s="8">
-        <f>$N$2*(Calculations!AF7/Calculations!$N$7)</f>
-        <v>240749.73350704726</v>
+        <f>'Texas Notes'!AF35</f>
+        <v>12241.511873239691</v>
       </c>
       <c r="AG2" s="8">
-        <f>$N$2*(Calculations!AG7/Calculations!$N$7)</f>
-        <v>242821.98270756842</v>
+        <f>'Texas Notes'!AG35</f>
+        <v>12346.880476656022</v>
       </c>
       <c r="AH2" s="8">
-        <f>$N$2*(Calculations!AH7/Calculations!$N$7)</f>
-        <v>244985.90548383276</v>
+        <f>'Texas Notes'!AH35</f>
+        <v>12456.91044833048</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/DRC/Demand Response Capacity.xlsx
+++ b/InputData/elec/DRC/Demand Response Capacity.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Texas\InputData\elec\DRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-texas\InputData\elec\DRC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A235F4F-D7BD-4789-A3D4-BDCEDA899E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47625" yWindow="330" windowWidth="19050" windowHeight="14730" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47625" yWindow="330" windowWidth="19050" windowHeight="14730"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="DRC-BDRC" sheetId="5" r:id="rId4"/>
     <sheet name="DRC-PADRC" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -159,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -338,23 +337,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -390,23 +372,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -582,10 +547,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -724,7 +689,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -732,7 +697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -987,11 +952,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047289AC-4322-48A1-88EA-6EE7C99BC88A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1212,97 +1177,97 @@
         <v>59000</v>
       </c>
       <c r="D22">
-        <v>56816.464532194783</v>
+        <v>53577.217418126507</v>
       </c>
       <c r="E22">
-        <v>58832.246584697867</v>
+        <v>57181.528340619247</v>
       </c>
       <c r="F22">
-        <v>59841.508145388158</v>
+        <v>58517.96616569344</v>
       </c>
       <c r="G22">
-        <v>60441.185489060117</v>
+        <v>59414.651073741981</v>
       </c>
       <c r="H22">
-        <v>60910.319427441813</v>
+        <v>60093.89126434581</v>
       </c>
       <c r="I22">
-        <v>61332.85519490626</v>
+        <v>60597.026335662697</v>
       </c>
       <c r="J22">
-        <v>61698.445256440929</v>
+        <v>60929.939532212265</v>
       </c>
       <c r="K22">
-        <v>62110.496435448993</v>
+        <v>61158.99385217567</v>
       </c>
       <c r="L22">
-        <v>62645.416026890351</v>
+        <v>61535.992160992158</v>
       </c>
       <c r="M22">
-        <v>63199.865734083796</v>
+        <v>62153.419062509973</v>
       </c>
       <c r="N22">
-        <v>63642.822464685501</v>
+        <v>62478.566376293653</v>
       </c>
       <c r="O22">
-        <v>64182.53892666247</v>
+        <v>62828.893976621257</v>
       </c>
       <c r="P22">
-        <v>64747.267642146486</v>
+        <v>63235.70072433709</v>
       </c>
       <c r="Q22">
-        <v>65344.752130716464</v>
+        <v>63567.907931544294</v>
       </c>
       <c r="R22">
-        <v>66060.171107740272</v>
+        <v>63904.115745024836</v>
       </c>
       <c r="S22">
-        <v>66822.325309125197</v>
+        <v>64308.412308412306</v>
       </c>
       <c r="T22">
-        <v>67635.668971797189</v>
+        <v>64696.392673665396</v>
       </c>
       <c r="U22">
-        <v>68486.017064315238</v>
+        <v>65186.192390737844</v>
       </c>
       <c r="V22">
-        <v>69383.305961360224</v>
+        <v>65617.944095216822</v>
       </c>
       <c r="W22">
-        <v>70259.077467716954</v>
+        <v>66025.53527553528</v>
       </c>
       <c r="X22">
-        <v>71106.067750860064</v>
+        <v>66511.020613293338</v>
       </c>
       <c r="Y22">
-        <v>71921.535741912099</v>
+        <v>66955.166352893619</v>
       </c>
       <c r="Z22">
-        <v>72739.744801841618</v>
+        <v>67430.061850516402</v>
       </c>
       <c r="AA22">
-        <v>73533.284241873771</v>
+        <v>67968.261059170152</v>
       </c>
       <c r="AB22">
-        <v>74349.437500145184</v>
+        <v>68504.969845878935</v>
       </c>
       <c r="AC22">
-        <v>75142.291672957959</v>
+        <v>69110.159598795974</v>
       </c>
       <c r="AD22">
-        <v>75921.440501383317</v>
+        <v>69726.252964889325</v>
       </c>
       <c r="AE22">
-        <v>76666.325968840087</v>
+        <v>70286.337843156027</v>
       </c>
       <c r="AF22">
-        <v>77383.800747522007</v>
+        <v>70906.824031824042</v>
       </c>
       <c r="AG22">
-        <v>78049.880484751062</v>
+        <v>71608.185221821579</v>
       </c>
       <c r="AH22">
-        <v>78745.4267124131</v>
+        <v>72359.200995564635</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.45">
@@ -1419,103 +1384,103 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>59000</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>59000</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>71636.363636363298</v>
+        <v>18059.14621823679</v>
       </c>
       <c r="E26">
-        <v>84272.727272730321</v>
+        <v>27091.198932111074</v>
       </c>
       <c r="F26">
-        <v>96909.090909093618</v>
+        <v>38391.124743400178</v>
       </c>
       <c r="G26">
-        <v>109545.45454545692</v>
+        <v>50130.803471714935</v>
       </c>
       <c r="H26">
-        <v>122181.81818182021</v>
+        <v>62087.926917474404</v>
       </c>
       <c r="I26">
-        <v>134818.18181818351</v>
+        <v>74221.155482520815</v>
       </c>
       <c r="J26">
-        <v>147454.54545454681</v>
+        <v>86524.605922334536</v>
       </c>
       <c r="K26">
-        <v>160090.90909091011</v>
+        <v>98931.915238734437</v>
       </c>
       <c r="L26">
-        <v>172727.2727272734</v>
+        <v>111191.28056628125</v>
       </c>
       <c r="M26">
-        <v>185363.6363636367</v>
+        <v>123210.21730112673</v>
       </c>
       <c r="N26">
-        <v>198000</v>
+        <v>135521.43362370634</v>
       </c>
       <c r="O26">
-        <v>199679.11879663626</v>
+        <v>147807.46965974203</v>
       </c>
       <c r="P26">
-        <v>201436.05353547315</v>
+        <v>160037.02654839325</v>
       </c>
       <c r="Q26">
-        <v>203294.89517943861</v>
+        <v>172341.18297754932</v>
       </c>
       <c r="R26">
-        <v>205520.64432073908</v>
+        <v>184641.33880043207</v>
       </c>
       <c r="S26">
-        <v>207891.79201705556</v>
+        <v>196873.4058734079</v>
       </c>
       <c r="T26">
-        <v>210422.19590193059</v>
+        <v>209121.78914451812</v>
       </c>
       <c r="U26">
-        <v>213067.72474239013</v>
+        <v>221268.35306380896</v>
       </c>
       <c r="V26">
-        <v>215859.29172095226</v>
+        <v>233472.9649956933</v>
       </c>
       <c r="W26">
-        <v>218583.91566978561</v>
+        <v>245701.73745173812</v>
       </c>
       <c r="X26">
-        <v>221218.99798649768</v>
+        <v>257852.61575034336</v>
       </c>
       <c r="Y26">
-        <v>223756.01089660072</v>
+        <v>270044.83364710637</v>
       </c>
       <c r="Z26">
-        <v>226301.55158119151</v>
+        <v>282206.30178584688</v>
       </c>
       <c r="AA26">
-        <v>228770.34229539265</v>
+        <v>294304.4662135602</v>
       </c>
       <c r="AB26">
-        <v>231309.4871491176</v>
+        <v>306404.12106321467</v>
       </c>
       <c r="AC26">
-        <v>233776.14591969681</v>
+        <v>318435.29494666093</v>
       </c>
       <c r="AD26">
-        <v>236200.16581783726</v>
+        <v>330455.56521693087</v>
       </c>
       <c r="AE26">
-        <v>238517.58853488098</v>
+        <v>342531.8439750275</v>
       </c>
       <c r="AF26">
-        <v>240749.73350704726</v>
+        <v>354547.7214227228</v>
       </c>
       <c r="AG26">
-        <v>242821.98270756842</v>
+        <v>366482.72386908851</v>
       </c>
       <c r="AH26">
-        <v>244985.90548383276</v>
+        <v>378368.07173170877</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.45">
@@ -1646,127 +1611,127 @@
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>2888.9727728234639</v>
+        <v>2724.2652924471108</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>2991.4701653236207</v>
+        <v>2907.5353393535211</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>3042.7885497654997</v>
+        <v>2975.4898050352599</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>3073.2806180878028</v>
+        <v>3021.083952902135</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>3097.1348861411093</v>
+        <v>3055.6215897124989</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>3118.6197556732</v>
+        <v>3081.2047289320017</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
-        <v>3137.2090808359799</v>
+        <v>3098.1325185870646</v>
       </c>
       <c r="K31">
         <f t="shared" si="0"/>
-        <v>3158.1608357007963</v>
+        <v>3109.7793484157123</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>3185.3601369605267</v>
+        <v>3128.9487539487541</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>3213.5524949534138</v>
+        <v>3160.3433421615241</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>3236.0757185433308</v>
+        <v>3176.8762564217113</v>
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
-        <v>3263.5189284743633</v>
+        <v>3194.6895242349792</v>
       </c>
       <c r="P31">
         <f t="shared" si="0"/>
-        <v>3292.2339479057537</v>
+        <v>3215.3746131018861</v>
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
-        <v>3322.6145151211763</v>
+        <v>3232.2665049937777</v>
       </c>
       <c r="R31">
         <f t="shared" si="0"/>
-        <v>3358.9917512410311</v>
+        <v>3249.3618175436359</v>
       </c>
       <c r="S31">
         <f t="shared" si="0"/>
-        <v>3397.7453547012815</v>
+        <v>3269.9192699192699</v>
       </c>
       <c r="T31">
         <f t="shared" si="0"/>
-        <v>3439.101812125281</v>
+        <v>3289.6470851016306</v>
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>3482.3398507278935</v>
+        <v>3314.5521554612465</v>
       </c>
       <c r="V31">
         <f t="shared" si="0"/>
-        <v>3527.9647098996725</v>
+        <v>3336.5056319601777</v>
       </c>
       <c r="W31">
         <f t="shared" si="0"/>
-        <v>3572.4954644601844</v>
+        <v>3357.2306072306078</v>
       </c>
       <c r="X31">
         <f t="shared" si="0"/>
-        <v>3615.5627669928849</v>
+        <v>3381.9163023708479</v>
       </c>
       <c r="Y31">
         <f t="shared" si="0"/>
-        <v>3657.0272411141746</v>
+        <v>3404.4999840454384</v>
       </c>
       <c r="Z31">
         <f t="shared" si="0"/>
-        <v>3698.6310916190655</v>
+        <v>3428.6472127381226</v>
       </c>
       <c r="AA31">
         <f t="shared" si="0"/>
-        <v>3738.9805546715479</v>
+        <v>3456.0132741950929</v>
       </c>
       <c r="AB31">
         <f t="shared" si="0"/>
-        <v>3780.4798728887386</v>
+        <v>3483.30355148537</v>
       </c>
       <c r="AC31">
         <f t="shared" si="0"/>
-        <v>3820.7944918453204</v>
+        <v>3514.0759118031851</v>
       </c>
       <c r="AD31">
         <f t="shared" si="0"/>
-        <v>3860.4122288838976</v>
+        <v>3545.4026931299659</v>
       </c>
       <c r="AE31">
         <f t="shared" si="0"/>
-        <v>3898.2877611274621</v>
+        <v>3573.8815852452221</v>
       </c>
       <c r="AF31">
         <f t="shared" si="0"/>
-        <v>3934.7695295350177</v>
+        <v>3605.431730431731</v>
       </c>
       <c r="AG31">
         <f t="shared" si="0"/>
-        <v>3968.6379907500541</v>
+        <v>3641.0941638214363</v>
       </c>
       <c r="AH31">
         <f t="shared" si="0"/>
-        <v>4004.004748088802</v>
+        <v>3679.2814065541343</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.45">
@@ -1884,147 +1849,147 @@
       </c>
       <c r="B35">
         <f>B26*$A$17</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <f t="shared" ref="C35:AH35" si="1">C26*$A$17</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
-        <v>3642.526964560846</v>
+        <v>918.26167211373513</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>4285.0539291218811</v>
+        <v>1377.5185897683598</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>4927.580893682727</v>
+        <v>1952.0910886474669</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>5570.1078582435721</v>
+        <v>2549.0239053414375</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>6212.634822804418</v>
+        <v>3157.0132330919191</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>6855.161787365264</v>
+        <v>3773.9570584332619</v>
       </c>
       <c r="J35">
         <f t="shared" si="1"/>
-        <v>7497.688751926109</v>
+        <v>4399.5562333390444</v>
       </c>
       <c r="K35">
         <f t="shared" si="1"/>
-        <v>8140.215716486955</v>
+        <v>5030.4363680712431</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>8782.7426810478009</v>
+        <v>5653.7939270990464</v>
       </c>
       <c r="M35">
         <f t="shared" si="1"/>
-        <v>9425.2696456086469</v>
+        <v>6264.9263034471223</v>
       </c>
       <c r="N35">
         <f t="shared" si="1"/>
-        <v>10067.796610169493</v>
+        <v>6890.9203537477806</v>
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>10153.175532032354</v>
+        <v>7515.6340504953578</v>
       </c>
       <c r="P35">
         <f t="shared" si="1"/>
-        <v>10242.511196718975</v>
+        <v>8137.4759261894878</v>
       </c>
       <c r="Q35">
         <f t="shared" si="1"/>
-        <v>10337.028568446032</v>
+        <v>8763.1109988584412</v>
       </c>
       <c r="R35">
         <f t="shared" si="1"/>
-        <v>10450.202253596903</v>
+        <v>9388.5426508694272</v>
       </c>
       <c r="S35">
         <f t="shared" si="1"/>
-        <v>10570.769085612996</v>
+        <v>10010.51216305464</v>
       </c>
       <c r="T35">
         <f t="shared" si="1"/>
-        <v>10699.433689928675</v>
+        <v>10633.311312433125</v>
       </c>
       <c r="U35">
         <f t="shared" si="1"/>
-        <v>10833.952105545261</v>
+        <v>11250.933206634354</v>
       </c>
       <c r="V35">
         <f t="shared" si="1"/>
-        <v>10975.896189200963</v>
+        <v>11871.506694696271</v>
       </c>
       <c r="W35">
         <f t="shared" si="1"/>
-        <v>11114.4363899891</v>
+        <v>12493.308683986685</v>
       </c>
       <c r="X35">
         <f t="shared" si="1"/>
-        <v>11248.423626432086</v>
+        <v>13111.14995340729</v>
       </c>
       <c r="Y35">
         <f t="shared" si="1"/>
-        <v>11377.424282878004</v>
+        <v>13731.093236293545</v>
       </c>
       <c r="Z35">
         <f t="shared" si="1"/>
-        <v>11506.858554975841</v>
+        <v>14349.472972161706</v>
       </c>
       <c r="AA35">
         <f t="shared" si="1"/>
-        <v>11632.390286206406</v>
+        <v>14964.633875265774</v>
       </c>
       <c r="AB35">
         <f t="shared" si="1"/>
-        <v>11761.499346565302</v>
+        <v>15579.87056253634</v>
       </c>
       <c r="AC35">
         <f t="shared" si="1"/>
-        <v>11886.922673882889</v>
+        <v>16191.625166779369</v>
       </c>
       <c r="AD35">
         <f t="shared" si="1"/>
-        <v>12010.177922940878</v>
+        <v>16802.825350013434</v>
       </c>
       <c r="AE35">
         <f t="shared" si="1"/>
-        <v>12128.012976349881</v>
+        <v>17416.873422459026</v>
       </c>
       <c r="AF35">
         <f t="shared" si="1"/>
-        <v>12241.511873239691</v>
+        <v>18027.850241833363</v>
       </c>
       <c r="AG35">
         <f t="shared" si="1"/>
-        <v>12346.880476656022</v>
+        <v>18634.714773004504</v>
       </c>
       <c r="AH35">
         <f t="shared" si="1"/>
-        <v>12456.91044833048</v>
+        <v>19239.05449483265</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" display="https://www.aemc.gov.au/sites/default/files/2019-06/Updated International Review of Demand Response Mechanisms.pdf" xr:uid="{1B29CCB3-054C-4334-AB86-A2C833850D95}"/>
+    <hyperlink ref="A5" r:id="rId1" display="https://www.aemc.gov.au/sites/default/files/2019-06/Updated International Review of Demand Response Mechanisms.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2157,127 +2122,127 @@
       </c>
       <c r="D2" s="8">
         <f>'Texas Notes'!D31</f>
-        <v>2888.9727728234639</v>
+        <v>2724.2652924471108</v>
       </c>
       <c r="E2" s="8">
         <f>'Texas Notes'!E31</f>
-        <v>2991.4701653236207</v>
+        <v>2907.5353393535211</v>
       </c>
       <c r="F2" s="8">
         <f>'Texas Notes'!F31</f>
-        <v>3042.7885497654997</v>
+        <v>2975.4898050352599</v>
       </c>
       <c r="G2" s="8">
         <f>'Texas Notes'!G31</f>
-        <v>3073.2806180878028</v>
+        <v>3021.083952902135</v>
       </c>
       <c r="H2" s="8">
         <f>'Texas Notes'!H31</f>
-        <v>3097.1348861411093</v>
+        <v>3055.6215897124989</v>
       </c>
       <c r="I2" s="8">
         <f>'Texas Notes'!I31</f>
-        <v>3118.6197556732</v>
+        <v>3081.2047289320017</v>
       </c>
       <c r="J2" s="8">
         <f>'Texas Notes'!J31</f>
-        <v>3137.2090808359799</v>
+        <v>3098.1325185870646</v>
       </c>
       <c r="K2" s="8">
         <f>'Texas Notes'!K31</f>
-        <v>3158.1608357007963</v>
+        <v>3109.7793484157123</v>
       </c>
       <c r="L2" s="8">
         <f>'Texas Notes'!L31</f>
-        <v>3185.3601369605267</v>
+        <v>3128.9487539487541</v>
       </c>
       <c r="M2" s="8">
         <f>'Texas Notes'!M31</f>
-        <v>3213.5524949534138</v>
+        <v>3160.3433421615241</v>
       </c>
       <c r="N2" s="8">
         <f>'Texas Notes'!N31</f>
-        <v>3236.0757185433308</v>
+        <v>3176.8762564217113</v>
       </c>
       <c r="O2" s="8">
         <f>'Texas Notes'!O31</f>
-        <v>3263.5189284743633</v>
+        <v>3194.6895242349792</v>
       </c>
       <c r="P2" s="8">
         <f>'Texas Notes'!P31</f>
-        <v>3292.2339479057537</v>
+        <v>3215.3746131018861</v>
       </c>
       <c r="Q2" s="8">
         <f>'Texas Notes'!Q31</f>
-        <v>3322.6145151211763</v>
+        <v>3232.2665049937777</v>
       </c>
       <c r="R2" s="8">
         <f>'Texas Notes'!R31</f>
-        <v>3358.9917512410311</v>
+        <v>3249.3618175436359</v>
       </c>
       <c r="S2" s="8">
         <f>'Texas Notes'!S31</f>
-        <v>3397.7453547012815</v>
+        <v>3269.9192699192699</v>
       </c>
       <c r="T2" s="8">
         <f>'Texas Notes'!T31</f>
-        <v>3439.101812125281</v>
+        <v>3289.6470851016306</v>
       </c>
       <c r="U2" s="8">
         <f>'Texas Notes'!U31</f>
-        <v>3482.3398507278935</v>
+        <v>3314.5521554612465</v>
       </c>
       <c r="V2" s="8">
         <f>'Texas Notes'!V31</f>
-        <v>3527.9647098996725</v>
+        <v>3336.5056319601777</v>
       </c>
       <c r="W2" s="8">
         <f>'Texas Notes'!W31</f>
-        <v>3572.4954644601844</v>
+        <v>3357.2306072306078</v>
       </c>
       <c r="X2" s="8">
         <f>'Texas Notes'!X31</f>
-        <v>3615.5627669928849</v>
+        <v>3381.9163023708479</v>
       </c>
       <c r="Y2" s="8">
         <f>'Texas Notes'!Y31</f>
-        <v>3657.0272411141746</v>
+        <v>3404.4999840454384</v>
       </c>
       <c r="Z2" s="8">
         <f>'Texas Notes'!Z31</f>
-        <v>3698.6310916190655</v>
+        <v>3428.6472127381226</v>
       </c>
       <c r="AA2" s="8">
         <f>'Texas Notes'!AA31</f>
-        <v>3738.9805546715479</v>
+        <v>3456.0132741950929</v>
       </c>
       <c r="AB2" s="8">
         <f>'Texas Notes'!AB31</f>
-        <v>3780.4798728887386</v>
+        <v>3483.30355148537</v>
       </c>
       <c r="AC2" s="8">
         <f>'Texas Notes'!AC31</f>
-        <v>3820.7944918453204</v>
+        <v>3514.0759118031851</v>
       </c>
       <c r="AD2" s="8">
         <f>'Texas Notes'!AD31</f>
-        <v>3860.4122288838976</v>
+        <v>3545.4026931299659</v>
       </c>
       <c r="AE2" s="8">
         <f>'Texas Notes'!AE31</f>
-        <v>3898.2877611274621</v>
+        <v>3573.8815852452221</v>
       </c>
       <c r="AF2" s="8">
         <f>'Texas Notes'!AF31</f>
-        <v>3934.7695295350177</v>
+        <v>3605.431730431731</v>
       </c>
       <c r="AG2" s="8">
         <f>'Texas Notes'!AG31</f>
-        <v>3968.6379907500541</v>
+        <v>3641.0941638214363</v>
       </c>
       <c r="AH2" s="8">
         <f>'Texas Notes'!AH31</f>
-        <v>4004.004748088802</v>
+        <v>3679.2814065541343</v>
       </c>
     </row>
   </sheetData>
@@ -2286,14 +2251,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG6" sqref="AG6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2411,135 +2376,135 @@
       </c>
       <c r="B2" s="8">
         <f>'Texas Notes'!B35</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C2" s="8">
         <f>'Texas Notes'!C35</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="8">
         <f>'Texas Notes'!D35</f>
-        <v>3642.526964560846</v>
+        <v>918.26167211373513</v>
       </c>
       <c r="E2" s="8">
         <f>'Texas Notes'!E35</f>
-        <v>4285.0539291218811</v>
+        <v>1377.5185897683598</v>
       </c>
       <c r="F2" s="8">
         <f>'Texas Notes'!F35</f>
-        <v>4927.580893682727</v>
+        <v>1952.0910886474669</v>
       </c>
       <c r="G2" s="8">
         <f>'Texas Notes'!G35</f>
-        <v>5570.1078582435721</v>
+        <v>2549.0239053414375</v>
       </c>
       <c r="H2" s="8">
         <f>'Texas Notes'!H35</f>
-        <v>6212.634822804418</v>
+        <v>3157.0132330919191</v>
       </c>
       <c r="I2" s="8">
         <f>'Texas Notes'!I35</f>
-        <v>6855.161787365264</v>
+        <v>3773.9570584332619</v>
       </c>
       <c r="J2" s="8">
         <f>'Texas Notes'!J35</f>
-        <v>7497.688751926109</v>
+        <v>4399.5562333390444</v>
       </c>
       <c r="K2" s="8">
         <f>'Texas Notes'!K35</f>
-        <v>8140.215716486955</v>
+        <v>5030.4363680712431</v>
       </c>
       <c r="L2" s="8">
         <f>'Texas Notes'!L35</f>
-        <v>8782.7426810478009</v>
+        <v>5653.7939270990464</v>
       </c>
       <c r="M2" s="8">
         <f>'Texas Notes'!M35</f>
-        <v>9425.2696456086469</v>
+        <v>6264.9263034471223</v>
       </c>
       <c r="N2" s="8">
         <f>'Texas Notes'!N35</f>
-        <v>10067.796610169493</v>
+        <v>6890.9203537477806</v>
       </c>
       <c r="O2" s="8">
         <f>'Texas Notes'!O35</f>
-        <v>10153.175532032354</v>
+        <v>7515.6340504953578</v>
       </c>
       <c r="P2" s="8">
         <f>'Texas Notes'!P35</f>
-        <v>10242.511196718975</v>
+        <v>8137.4759261894878</v>
       </c>
       <c r="Q2" s="8">
         <f>'Texas Notes'!Q35</f>
-        <v>10337.028568446032</v>
+        <v>8763.1109988584412</v>
       </c>
       <c r="R2" s="8">
         <f>'Texas Notes'!R35</f>
-        <v>10450.202253596903</v>
+        <v>9388.5426508694272</v>
       </c>
       <c r="S2" s="8">
         <f>'Texas Notes'!S35</f>
-        <v>10570.769085612996</v>
+        <v>10010.51216305464</v>
       </c>
       <c r="T2" s="8">
         <f>'Texas Notes'!T35</f>
-        <v>10699.433689928675</v>
+        <v>10633.311312433125</v>
       </c>
       <c r="U2" s="8">
         <f>'Texas Notes'!U35</f>
-        <v>10833.952105545261</v>
+        <v>11250.933206634354</v>
       </c>
       <c r="V2" s="8">
         <f>'Texas Notes'!V35</f>
-        <v>10975.896189200963</v>
+        <v>11871.506694696271</v>
       </c>
       <c r="W2" s="8">
         <f>'Texas Notes'!W35</f>
-        <v>11114.4363899891</v>
+        <v>12493.308683986685</v>
       </c>
       <c r="X2" s="8">
         <f>'Texas Notes'!X35</f>
-        <v>11248.423626432086</v>
+        <v>13111.14995340729</v>
       </c>
       <c r="Y2" s="8">
         <f>'Texas Notes'!Y35</f>
-        <v>11377.424282878004</v>
+        <v>13731.093236293545</v>
       </c>
       <c r="Z2" s="8">
         <f>'Texas Notes'!Z35</f>
-        <v>11506.858554975841</v>
+        <v>14349.472972161706</v>
       </c>
       <c r="AA2" s="8">
         <f>'Texas Notes'!AA35</f>
-        <v>11632.390286206406</v>
+        <v>14964.633875265774</v>
       </c>
       <c r="AB2" s="8">
         <f>'Texas Notes'!AB35</f>
-        <v>11761.499346565302</v>
+        <v>15579.87056253634</v>
       </c>
       <c r="AC2" s="8">
         <f>'Texas Notes'!AC35</f>
-        <v>11886.922673882889</v>
+        <v>16191.625166779369</v>
       </c>
       <c r="AD2" s="8">
         <f>'Texas Notes'!AD35</f>
-        <v>12010.177922940878</v>
+        <v>16802.825350013434</v>
       </c>
       <c r="AE2" s="8">
         <f>'Texas Notes'!AE35</f>
-        <v>12128.012976349881</v>
+        <v>17416.873422459026</v>
       </c>
       <c r="AF2" s="8">
         <f>'Texas Notes'!AF35</f>
-        <v>12241.511873239691</v>
+        <v>18027.850241833363</v>
       </c>
       <c r="AG2" s="8">
         <f>'Texas Notes'!AG35</f>
-        <v>12346.880476656022</v>
+        <v>18634.714773004504</v>
       </c>
       <c r="AH2" s="8">
         <f>'Texas Notes'!AH35</f>
-        <v>12456.91044833048</v>
+        <v>19239.05449483265</v>
       </c>
     </row>
   </sheetData>
